--- a/www.eia.gov/electricity/monthly/xls/table_1_02_c.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_02_c.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
-  <si>
-    <t>Table 1.2.C. Net Generation by Energy Source:  Commercial Sector, 2006-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+  <si>
+    <t>Table 1.2.C. Net Generation by Energy Source:  Commercial Sector, 2006-November 2016</t>
   </si>
   <si>
     <t>(Thousand Megawatthours)</t>
@@ -157,7 +157,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Coal includes anthracite, bituminous, subbituminous, lignite, and waste coal; synthetic coal and refined coal; and beginning in 2011, coal-derived synthesis gas. Prior to 2011 coal-derived synthesis gas was included in Other Gases.
@@ -1112,7 +1112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3522,90 +3522,90 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="10">
+        <v>39</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="E53" s="10">
+        <v>591</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="10">
+        <v>38</v>
+      </c>
+      <c r="J53" s="10">
+        <v>197</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="10">
+        <v>84</v>
+      </c>
+      <c r="M53" s="10">
+        <v>960</v>
+      </c>
+      <c r="N53" s="10">
+        <v>467</v>
+      </c>
+      <c r="O53" s="10">
+        <v>505</v>
+      </c>
+      <c r="P53" s="10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="10">
-        <v>507</v>
-      </c>
-      <c r="C54" s="10">
-        <v>227</v>
-      </c>
-      <c r="D54" s="10">
-        <v>7</v>
-      </c>
-      <c r="E54" s="10">
-        <v>6065</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <v>34</v>
-      </c>
-      <c r="I54" s="10">
-        <v>323</v>
-      </c>
-      <c r="J54" s="10">
-        <v>2414</v>
-      </c>
-      <c r="K54" s="10">
-        <v>0</v>
-      </c>
-      <c r="L54" s="10">
-        <v>976</v>
-      </c>
-      <c r="M54" s="10">
-        <v>10553</v>
-      </c>
-      <c r="N54" s="10">
-        <v>4479</v>
-      </c>
-      <c r="O54" s="10">
-        <v>4801</v>
-      </c>
-      <c r="P54" s="10">
-        <v>4801</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="10">
-        <v>433</v>
+        <v>551</v>
       </c>
       <c r="C55" s="10">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="D55" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" s="10">
-        <v>6270</v>
+        <v>6625</v>
       </c>
       <c r="F55" s="10">
         <v>0</v>
@@ -3614,230 +3614,280 @@
         <v>0</v>
       </c>
       <c r="H55" s="10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I55" s="10">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="J55" s="10">
-        <v>2325</v>
+        <v>2632</v>
       </c>
       <c r="K55" s="10">
         <v>0</v>
       </c>
       <c r="L55" s="10">
-        <v>970</v>
+        <v>1074</v>
       </c>
       <c r="M55" s="10">
-        <v>10570</v>
+        <v>11512</v>
       </c>
       <c r="N55" s="10">
-        <v>4973</v>
+        <v>4817</v>
       </c>
       <c r="O55" s="10">
-        <v>5339</v>
+        <v>5167</v>
       </c>
       <c r="P55" s="10">
-        <v>5339</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="10">
+        <v>468</v>
+      </c>
+      <c r="C56" s="10">
+        <v>176</v>
+      </c>
+      <c r="D56" s="10">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10">
+        <v>6853</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>31</v>
+      </c>
+      <c r="I56" s="10">
+        <v>393</v>
+      </c>
+      <c r="J56" s="10">
+        <v>2562</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
+        <v>1072</v>
+      </c>
+      <c r="M56" s="10">
+        <v>11562</v>
+      </c>
+      <c r="N56" s="10">
+        <v>5340</v>
+      </c>
+      <c r="O56" s="10">
+        <v>5733</v>
+      </c>
+      <c r="P56" s="10">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>2016</v>
       </c>
-      <c r="B56" s="10">
-        <v>352</v>
-      </c>
-      <c r="C56" s="10">
-        <v>89</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="B57" s="10">
+        <v>391</v>
+      </c>
+      <c r="C57" s="10">
+        <v>96</v>
+      </c>
+      <c r="D57" s="10">
         <v>4</v>
       </c>
-      <c r="E56" s="10">
-        <v>6557</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10">
-        <v>51</v>
-      </c>
-      <c r="I56" s="10">
-        <v>496</v>
-      </c>
-      <c r="J56" s="10">
-        <v>2190</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0</v>
-      </c>
-      <c r="L56" s="10">
-        <v>908</v>
-      </c>
-      <c r="M56" s="10">
-        <v>10647</v>
-      </c>
-      <c r="N56" s="10">
-        <v>6243</v>
-      </c>
-      <c r="O56" s="10">
-        <v>6740</v>
-      </c>
-      <c r="P56" s="10">
-        <v>6740</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="E57" s="10">
+        <v>7148</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>54</v>
+      </c>
+      <c r="I57" s="10">
+        <v>534</v>
+      </c>
+      <c r="J57" s="10">
+        <v>2387</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
+        <v>993</v>
+      </c>
+      <c r="M57" s="10">
+        <v>11608</v>
+      </c>
+      <c r="N57" s="10">
+        <v>6710</v>
+      </c>
+      <c r="O57" s="10">
+        <v>7244</v>
+      </c>
+      <c r="P57" s="10">
+        <v>7244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="10">
-        <v>521</v>
-      </c>
-      <c r="C58" s="10">
-        <v>190</v>
-      </c>
-      <c r="D58" s="10">
-        <v>9</v>
-      </c>
-      <c r="E58" s="10">
-        <v>7432</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
-        <v>32</v>
-      </c>
-      <c r="I58" s="10">
-        <v>414</v>
-      </c>
-      <c r="J58" s="10">
-        <v>2773</v>
-      </c>
-      <c r="K58" s="10">
-        <v>0</v>
-      </c>
-      <c r="L58" s="10">
-        <v>1165</v>
-      </c>
-      <c r="M58" s="10">
-        <v>12537</v>
-      </c>
-      <c r="N58" s="10">
-        <v>5640</v>
-      </c>
-      <c r="O58" s="10">
-        <v>6054</v>
-      </c>
-      <c r="P58" s="10">
-        <v>6054</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="10">
+        <v>512</v>
+      </c>
+      <c r="C59" s="10">
+        <v>187</v>
+      </c>
+      <c r="D59" s="10">
+        <v>9</v>
+      </c>
+      <c r="E59" s="10">
+        <v>7455</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>33</v>
+      </c>
+      <c r="I59" s="10">
+        <v>413</v>
+      </c>
+      <c r="J59" s="10">
+        <v>2791</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
+        <v>1169</v>
+      </c>
+      <c r="M59" s="10">
+        <v>12569</v>
+      </c>
+      <c r="N59" s="10">
+        <v>5669</v>
+      </c>
+      <c r="O59" s="10">
+        <v>6082</v>
+      </c>
+      <c r="P59" s="10">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>2016</v>
       </c>
-      <c r="B59" s="10">
-        <v>428</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B60" s="10">
+        <v>432</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="10">
-        <v>6</v>
-      </c>
-      <c r="E59" s="10">
-        <v>7758</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10" t="s">
+      <c r="D60" s="10">
+        <v>5</v>
+      </c>
+      <c r="E60" s="10">
+        <v>7765</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="10">
-        <v>547</v>
-      </c>
-      <c r="J59" s="10">
-        <v>2668</v>
-      </c>
-      <c r="K59" s="10">
-        <v>0</v>
-      </c>
-      <c r="L59" s="10">
-        <v>1108</v>
-      </c>
-      <c r="M59" s="10">
-        <v>12673</v>
-      </c>
-      <c r="N59" s="10">
-        <v>6959</v>
-      </c>
-      <c r="O59" s="10">
-        <v>7506</v>
-      </c>
-      <c r="P59" s="10">
-        <v>7506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="I60" s="10">
+        <v>558</v>
+      </c>
+      <c r="J60" s="10">
+        <v>2629</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="10">
+        <v>1091</v>
+      </c>
+      <c r="M60" s="10">
+        <v>12641</v>
+      </c>
+      <c r="N60" s="10">
+        <v>7059</v>
+      </c>
+      <c r="O60" s="10">
+        <v>7617</v>
+      </c>
+      <c r="P60" s="10">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A29:P29"/>
     <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A61:P61"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="B3:M3"/>
